--- a/data/transformed_data_2008.xlsx
+++ b/data/transformed_data_2008.xlsx
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>363250.2148608819</v>
+        <v>369718.5088608819</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2708,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>54946.64</v>
+        <v>47254.1104</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8744.539999999999</v>
+        <v>7520.3044</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5115,7 +5115,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13330.05802788051</v>
+        <v>13049.48402788051</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5451,7 +5451,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>114.66</v>
+        <v>98.60760000000001</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5619,7 +5619,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2118.76</v>
+        <v>1822.1336</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7830,7 +7830,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>24947.52417923186</v>
+        <v>25601.41937923186</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8166,7 +8166,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>14986.16</v>
+        <v>12888.0976</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8334,7 +8334,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>10315.48</v>
+        <v>8871.3128</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -10573,7 +10573,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>18530.58033911806</v>
+        <v>18401.88673911806</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -10909,7 +10909,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1995.28</v>
+        <v>1715.9408</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11077,7 +11077,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2914.52</v>
+        <v>2506.4872</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13302,7 +13302,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>15215.0501940256</v>
+        <v>15221.7729940256</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13638,7 +13638,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>8026.2</v>
+        <v>6902.531999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -13806,7 +13806,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7978.18</v>
+        <v>6861.2348</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -16045,7 +16045,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>11758.7848</v>
+        <v>11676.0532</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -16381,7 +16381,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>407.68</v>
+        <v>350.6048</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -16549,7 +16549,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>998.62</v>
+        <v>858.8132000000001</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -18774,7 +18774,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>17168.78402105263</v>
+        <v>16752.24482105263</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -19110,7 +19110,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>11095.56</v>
+        <v>9542.1816</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -19278,7 +19278,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>14070.84</v>
+        <v>12100.9224</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -21517,7 +21517,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>15414.71335874822</v>
+        <v>15568.51455874822</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -21853,7 +21853,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>9468.76</v>
+        <v>8143.133599999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -22021,7 +22021,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8370.18</v>
+        <v>7198.3548</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -24260,7 +24260,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>17140.44278349929</v>
+        <v>16389.68438349929</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -24596,7 +24596,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5769.26</v>
+        <v>4961.563599999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -24764,7 +24764,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>11131.82</v>
+        <v>9573.3652</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -27003,7 +27003,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9719.40078520626</v>
+        <v>9416.874785206259</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -27339,7 +27339,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1659.14</v>
+        <v>1426.8604</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -27507,7 +27507,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3820.04</v>
+        <v>3285.2344</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -29732,7 +29732,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8503.25694623044</v>
+        <v>8665.701746230439</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -30068,7 +30068,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7225.54</v>
+        <v>6213.9644</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -30236,7 +30236,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6065.22</v>
+        <v>5216.089199999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -32475,7 +32475,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>49140.69083527738</v>
+        <v>49131.08683527738</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -32811,7 +32811,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3609.34</v>
+        <v>3104.0324</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -32979,7 +32979,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3677.94</v>
+        <v>3163.0284</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -35190,7 +35190,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>7978.000951351351</v>
+        <v>7854.109351351352</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -35526,7 +35526,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>228.34</v>
+        <v>196.3724</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -35694,7 +35694,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1113.28</v>
+        <v>957.4208</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -37919,7 +37919,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>10040.42479298616</v>
+        <v>9663.947992986163</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -38255,7 +38255,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>152.88</v>
+        <v>131.4768</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -38423,7 +38423,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2842</v>
+        <v>2444.12</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -40648,7 +40648,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3993.934545661451</v>
+        <v>3996.952945661451</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -40984,7 +40984,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3757.32</v>
+        <v>3231.2952</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -41152,7 +41152,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3735.76</v>
+        <v>3212.7536</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -43391,7 +43391,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3244.671628449501</v>
+        <v>3204.060428449501</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -43727,7 +43727,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6777.68</v>
+        <v>5828.8048</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -43895,7 +43895,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7067.76</v>
+        <v>6078.2736</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -46134,7 +46134,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13319.19837325747</v>
+        <v>12764.22437325747</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -46470,7 +46470,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6696.34</v>
+        <v>5758.8524</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -46638,7 +46638,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>10660.44</v>
+        <v>9167.9784</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -48877,7 +48877,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4169.209817923185</v>
+        <v>4078.657817923186</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -49213,7 +49213,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6036.8</v>
+        <v>5191.648</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -49381,7 +49381,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6683.599999999999</v>
+        <v>5747.896</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -51606,7 +51606,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>10222.86804836415</v>
+        <v>9690.669248364153</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -51942,7 +51942,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>683.0599999999999</v>
+        <v>587.4316</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -52110,7 +52110,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4484.48</v>
+        <v>3856.6528</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -54335,7 +54335,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4686.114038122332</v>
+        <v>4642.484438122333</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -54671,7 +54671,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1445.5</v>
+        <v>1243.13</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -54839,7 +54839,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1757.14</v>
+        <v>1511.1404</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -57064,7 +57064,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6970.135188051209</v>
+        <v>6972.193188051209</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -57400,7 +57400,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1713.04</v>
+        <v>1473.2144</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -57568,7 +57568,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1698.34</v>
+        <v>1460.5724</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -59807,7 +59807,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>10622.75898605974</v>
+        <v>10764.76098605975</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -60143,7 +60143,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3358.46</v>
+        <v>2888.2756</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -60311,7 +60311,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2344.16</v>
+        <v>2015.9776</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -62536,7 +62536,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>46687.41830440966</v>
+        <v>49815.98990440965</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -62872,7 +62872,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>28619.92</v>
+        <v>24613.1312</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -63040,7 +63040,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6272.98</v>
+        <v>5394.7628</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -65279,7 +65279,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4396.107809957326</v>
+        <v>4350.831809957326</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -65615,7 +65615,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3093.86</v>
+        <v>2660.7196</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -65783,7 +65783,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3417.26</v>
+        <v>2938.8436</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -68008,7 +68008,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>91306.11407055476</v>
+        <v>89536.64567055475</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -68344,7 +68344,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>19752.88</v>
+        <v>16987.4768</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -68512,7 +68512,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>32391.94</v>
+        <v>27857.0684</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -70737,7 +70737,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>53957.30908961593</v>
+        <v>52727.17388961592</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -71073,7 +71073,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2201.08</v>
+        <v>1892.9288</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -71241,7 +71241,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>10987.76</v>
+        <v>9449.473599999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -73466,7 +73466,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>37343.93732233286</v>
+        <v>39314.81532233286</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -73802,7 +73802,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>19428.5</v>
+        <v>16708.51</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -73970,7 +73970,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5350.8</v>
+        <v>4601.688</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -76209,7 +76209,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>25510.78337524894</v>
+        <v>26797.85657524894</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -76545,7 +76545,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>29644.02</v>
+        <v>25493.8572</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -76713,7 +76713,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>20450.64</v>
+        <v>17587.5504</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -78952,7 +78952,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>15219.25080342262</v>
+        <v>15595.45320342262</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -79288,7 +79288,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5671.26</v>
+        <v>4877.2836</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -79456,7 +79456,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2984.1</v>
+        <v>2566.326</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -81681,7 +81681,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>20530.96579061167</v>
+        <v>20569.51899061166</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -82017,7 +82017,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3363.36</v>
+        <v>2892.4896</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -82185,7 +82185,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3087.98</v>
+        <v>2655.6628</v>
       </c>
     </row>
     <row r="168" spans="1:4">
